--- a/biology/Botanique/Licania/Licania.xlsx
+++ b/biology/Botanique/Licania/Licania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Licania est un genre de plantes à fleurs de la famille des Chrysobalanaceae. 
-L'étymologie du nom Licania est vraisemblablement dérivée du nom vernaculaire Kali'na ancien de l'espèce type Licania incana Aubl. : Caligni[3].
+L'étymologie du nom Licania est vraisemblablement dérivée du nom vernaculaire Kali'na ancien de l'espèce type Licania incana Aubl. : Caligni.
 Principalement dû à la déforestation, la population de plusieurs espèces de ces arbustes a diminué, à l'instar de Licania caldasiana, totalement disparue de Colombie depuis quelques années, seul endroit où cette espèce se développait.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « LICANIA. (Tabula 45.)
 CAL. Perianthium diphyllum, minimum. 
 COR. monopetala, turbinata ; limbo patente, quinquedentato ; denticulis acutis.
@@ -552,9 +566,11 @@
           <t>Liste des sous-genres, espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 avril 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 avril 2019) :
 sous-genre Licania subgen. Licania
 Licania adolphoduckei Prance
 Licania affinis Fritsch
@@ -779,7 +795,7 @@
 sous-genre Licania subgen. Parinariopsis Huber
 Licania licaniiflora (Sagot) S.F.Blake
 Licania platycalyx (Cuatrec.) Sothers &amp; Prance
-Selon Catalogue of Life                                   (14 avril 2019)[4] :
+Selon Catalogue of Life                                   (14 avril 2019) :
 Licania adolphoduckei Prance
 Licania affinis Fritsch
 Licania alba (Bernoulli) Cuatrec.
@@ -999,7 +1015,7 @@
 Licania velutina G. T. Prance
 Licania veneralensis Cuatrec.
 Licania wurdackii Prance
-Selon GRIN            (14 avril 2019)[5] :
+Selon GRIN            (14 avril 2019) :
 Licania arborea Seem.
 Licania hypoleuca Benth.
 Licania incana Aubl.
@@ -1009,7 +1025,7 @@
 Licania rigida Benth.
 Licania spp.
 Licania tomentosa (Benth.) Fritsch
-Selon World Checklist of Selected Plant Families (WCSP)  (14 avril 2019)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (14 avril 2019) :
 Licania adolphoduckei Prance (2001)
 Licania affinis Fritsch (1889)
 Licania alba (Bernoulli) Cuatrec. (1964)
@@ -1238,7 +1254,7 @@
 Licania velutina Prance (1992)
 Licania veneralensis Cuatrec., Fieldiana (1951)
 Licania wurdackii Prance (1972)
-Selon The Plant List            (14 avril 2019)[7] :
+Selon The Plant List            (14 avril 2019) :
 Licania adolphoduckei Prance
 Licania affinis Fritsch
 Licania alba (Bernoulli) Cuatrec.
@@ -1458,7 +1474,7 @@
 Licania velutina Prance
 Licania veneralensis Cuatrec.
 Licania wurdackii Prance
-Selon Tropicos                                           (14 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Licania adolphoduckei Prance
 Licania affinis Fritsch
 Licania alba (Bernoulli) Cuatrec.
@@ -1632,7 +1648,8 @@
 Licania longipetala Prance
 Licania longistyla (Hook. f.) Fritsch
 Licania lucida J.F. Macbr.
-Licania macroca</t>
+Licania macrocarpa Cuatrec.
+Lican</t>
         </is>
       </c>
     </row>
